--- a/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,76%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>14,18; 19,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>12,71; 17,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>16,6; 24,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>19,3; 26,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>14,32; 19,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>18,65; 23,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>21,81; 28,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>30,03; 35,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>14,92; 18,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>16,73; 20,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>20,81; 26,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>26,51; 30,93</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,36%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>28,25; 33,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>31,1; 35,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>32,56; 37,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>44,34; 51,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>31,12; 36,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>33,35; 38,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>37,09; 41,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>51,0; 61,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>30,47; 34,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>32,86; 36,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>35,76; 39,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>48,98; 55,37</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,62%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>34,6; 44,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>35,64; 46,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>43,04; 52,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>55,93; 64,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>38,4; 47,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>37,03; 46,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>41,0; 49,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>53,89; 60,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>38,13; 44,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>37,88; 45,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>43,16; 49,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>55,79; 61,32</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,54%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>26,88; 30,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,76; 31,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>32,97; 36,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>44,13; 48,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,48; 30,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>29,34; 32,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>35,24; 39,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>47,89; 55,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,61; 30,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>29,2; 31,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>34,92; 37,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>46,95; 51,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>28,18%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,3; 26,29</t>
+          <t>19,18; 26,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,03; 35,38</t>
+          <t>29,51; 34,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,51; 30,93</t>
+          <t>25,94; 30,33</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>53,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>48,51%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,34; 51,19</t>
+          <t>29,95; 49,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,0; 61,99</t>
+          <t>47,56; 66,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,98; 55,37</t>
+          <t>40,86; 54,79</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59,94%</t>
+          <t>59,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,37%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>58,62%</t>
+          <t>58,13%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,93; 64,04</t>
+          <t>55,25; 63,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,89; 60,82</t>
+          <t>53,45; 60,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>55,79; 61,32</t>
+          <t>55,19; 60,84</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,07%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>46,75%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,13; 48,98</t>
+          <t>33,8; 47,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,89; 55,59</t>
+          <t>45,61; 59,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,95; 51,5</t>
+          <t>42,07; 51,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,18; 19,95</t>
+          <t>14,24; 19,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 17,83</t>
+          <t>12,75; 17,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,6; 24,09</t>
+          <t>17,08; 24,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,18; 26,1</t>
+          <t>19,02; 26,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 19,29</t>
+          <t>14,24; 18,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,65; 23,58</t>
+          <t>18,59; 23,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,81; 28,88</t>
+          <t>21,97; 28,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,51; 34,71</t>
+          <t>29,54; 34,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 18,76</t>
+          <t>15,04; 18,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,73; 20,66</t>
+          <t>16,71; 20,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,81; 26,0</t>
+          <t>20,76; 25,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,94; 30,33</t>
+          <t>26,18; 30,32</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,25; 33,4</t>
+          <t>28,39; 33,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 35,73</t>
+          <t>30,95; 35,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,56; 37,56</t>
+          <t>32,74; 37,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,95; 49,89</t>
+          <t>28,47; 49,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,12; 36,25</t>
+          <t>31,17; 36,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,35; 38,3</t>
+          <t>33,34; 38,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,09; 41,81</t>
+          <t>37,05; 41,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,56; 66,8</t>
+          <t>46,84; 65,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,47; 34,23</t>
+          <t>30,41; 34,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,86; 36,21</t>
+          <t>32,65; 36,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,76; 39,0</t>
+          <t>35,7; 39,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,86; 54,79</t>
+          <t>41,12; 55,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,6; 44,51</t>
+          <t>34,78; 44,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,64; 46,07</t>
+          <t>36,27; 46,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,04; 52,52</t>
+          <t>42,72; 52,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,25; 63,59</t>
+          <t>55,34; 63,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,4; 47,97</t>
+          <t>37,49; 47,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,03; 46,86</t>
+          <t>36,72; 46,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,0; 49,81</t>
+          <t>40,43; 49,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,45; 60,26</t>
+          <t>53,61; 60,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,13; 44,99</t>
+          <t>38,35; 45,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,88; 45,14</t>
+          <t>38,12; 45,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43,16; 49,71</t>
+          <t>43,09; 49,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>55,19; 60,84</t>
+          <t>55,06; 60,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,88; 30,5</t>
+          <t>26,9; 30,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,76; 31,45</t>
+          <t>27,93; 31,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,97; 36,82</t>
+          <t>33,14; 36,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,8; 47,52</t>
+          <t>33,9; 47,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,48; 30,88</t>
+          <t>27,54; 30,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 32,89</t>
+          <t>29,6; 33,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,24; 39,11</t>
+          <t>35,36; 39,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,61; 59,43</t>
+          <t>45,75; 58,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,61; 30,05</t>
+          <t>27,57; 30,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,2; 31,72</t>
+          <t>29,08; 31,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,92; 37,54</t>
+          <t>34,81; 37,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>42,07; 51,21</t>
+          <t>41,82; 50,85</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una limpieza de boca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>117288</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>118304</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>93699</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>108659</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>159582</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>236464</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>159979</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>231220</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>276870</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>354768</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>253678</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>339879</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>98165; 137693</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>99100; 139501</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>78124; 112003</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>92140; 127037</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>136556; 181489</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>209989; 268831</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>140353; 184585</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>213194; 250715</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>247988; 310072</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>318629; 389963</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>227569; 283510</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>315701; 365735</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1512</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2446</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>404074</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>561373</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>594671</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>971618</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>462371</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>568515</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>673688</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1176096</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>866445</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1129888</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1268359</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2147715</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>373156; 440638</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>522241; 601277</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>555450; 635721</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>634849; 1109848</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>427122; 502573</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>530536; 606476</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>633086; 710615</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1029565; 1429156</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>816291; 916310</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1070468; 1188917</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1215847; 1328719</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1820743; 2469743</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>181081</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>182204</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>238068</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>375278</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>174933</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>177188</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>230597</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>370874</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>356014</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>359391</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>468664</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>746153</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>156815; 202162</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>160370; 204567</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>213270; 259732</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>349782; 400383</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>153233; 195568</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>155593; 197851</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>205524; 252477</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>349334; 393393</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>329720; 390539</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>330095; 391157</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>434168; 498614</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>706725; 777782</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1467</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2514</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>702443</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>861881</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>926437</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1455556</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>796886</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>982167</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1064264</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1778190</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1499329</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1844047</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1990701</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3233746</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>660275; 751819</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>811790; 908276</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>879364; 977640</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1134340; 1596700</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>754103; 843476</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>930761; 1042037</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1009785; 1119729</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1633899; 2092172</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1431757; 1566168</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1759854; 1914031</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1917621; 2066975</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2892540; 3517341</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>